--- a/HardRightEdge/Imports/Saxo/Trades_01-Jan-2017_31-Dec-2017.xlsx
+++ b/HardRightEdge/Imports/Saxo/Trades_01-Jan-2017_31-Dec-2017.xlsx
@@ -18,7 +18,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="126">
+  <si>
+    <t>TradeId</t>
+  </si>
+  <si>
+    <t>AccountID</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>Trade Time</t>
+  </si>
+  <si>
+    <t>B/S</t>
+  </si>
+  <si>
+    <t>OpenClose</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Traded Value</t>
+  </si>
+  <si>
+    <t>Spread Costs</t>
+  </si>
+  <si>
+    <t>Booked amount</t>
+  </si>
+  <si>
+    <t>999/67678SGD</t>
+  </si>
   <si>
     <t>RelatedTradeId</t>
   </si>
@@ -35,75 +71,42 @@
     <t>ValueDate</t>
   </si>
   <si>
+    <t>Symbol</t>
+  </si>
+  <si>
     <t>BkAmountId</t>
   </si>
   <si>
+    <t>Exchange</t>
+  </si>
+  <si>
     <t>InstrumentDescription</t>
   </si>
   <si>
+    <t>Venue</t>
+  </si>
+  <si>
     <t>AssetType</t>
   </si>
   <si>
     <t>BkAmountType</t>
   </si>
   <si>
-    <t>Amount</t>
+    <t>OrderId</t>
   </si>
   <si>
     <t>AmountAccountCurrency</t>
   </si>
   <si>
+    <t>AccountCurrencyDecimals</t>
+  </si>
+  <si>
+    <t>AccountCurrency</t>
+  </si>
+  <si>
     <t>AmountClientCurrency</t>
   </si>
   <si>
-    <t>TradeId</t>
-  </si>
-  <si>
-    <t>AccountID</t>
-  </si>
-  <si>
-    <t>Instrument</t>
-  </si>
-  <si>
-    <t>Trade Time</t>
-  </si>
-  <si>
-    <t>B/S</t>
-  </si>
-  <si>
-    <t>OpenClose</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Traded Value</t>
-  </si>
-  <si>
-    <t>Spread Costs</t>
-  </si>
-  <si>
-    <t>Booked amount</t>
-  </si>
-  <si>
-    <t>Symbol</t>
-  </si>
-  <si>
-    <t>Exchange</t>
-  </si>
-  <si>
-    <t>Venue</t>
-  </si>
-  <si>
-    <t>OrderId</t>
-  </si>
-  <si>
-    <t>AccountCurrencyDecimals</t>
-  </si>
-  <si>
-    <t>AccountCurrency</t>
-  </si>
-  <si>
     <t>BookedAmountClientCurrency</t>
   </si>
   <si>
@@ -134,43 +137,61 @@
     <t>InstrumentSectorTypeId</t>
   </si>
   <si>
-    <t>95400/0001054SGD</t>
-  </si>
-  <si>
     <t>OptionEventType</t>
   </si>
   <si>
+    <t>RootInstrumentSectorName</t>
+  </si>
+  <si>
+    <t>RootInstrumentSectorTypeId</t>
+  </si>
+  <si>
+    <t>SpreadCostClientCurrency</t>
+  </si>
+  <si>
+    <t>SpreadCostUSD</t>
+  </si>
+  <si>
+    <t>Strike</t>
+  </si>
+  <si>
+    <t>TradeExecutionTime</t>
+  </si>
+  <si>
+    <t>Uic</t>
+  </si>
+  <si>
+    <t>UnderlyingInstrumentDescription</t>
+  </si>
+  <si>
+    <t>UnderlyingInstrumentSymbol</t>
+  </si>
+  <si>
     <t>Apple Inc.</t>
   </si>
   <si>
-    <t>RootInstrumentSectorName</t>
-  </si>
-  <si>
-    <t>RootInstrumentSectorTypeId</t>
-  </si>
-  <si>
-    <t>SpreadCostClientCurrency</t>
-  </si>
-  <si>
-    <t>SpreadCostUSD</t>
-  </si>
-  <si>
-    <t>Strike</t>
-  </si>
-  <si>
-    <t>TradeExecutionTime</t>
-  </si>
-  <si>
-    <t>Uic</t>
-  </si>
-  <si>
-    <t>UnderlyingInstrumentDescription</t>
-  </si>
-  <si>
-    <t>UnderlyingInstrumentSymbol</t>
-  </si>
-  <si>
-    <t>999/67678SGD</t>
+    <t>TransferIn</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Abcam Plc</t>
+  </si>
+  <si>
+    <t>China Sunsine Chemical Holdings Ltd</t>
+  </si>
+  <si>
+    <t>Wilmar International Ltd</t>
+  </si>
+  <si>
+    <t>Frank's International NV</t>
+  </si>
+  <si>
+    <t>AAPL:xnas</t>
+  </si>
+  <si>
+    <t>NASDAQ</t>
   </si>
   <si>
     <t>Stock</t>
@@ -179,48 +200,24 @@
     <t>Share Amount</t>
   </si>
   <si>
-    <t>TransferIn</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>Abcam Plc</t>
-  </si>
-  <si>
-    <t>AAPL:xnas</t>
-  </si>
-  <si>
-    <t>NASDAQ</t>
-  </si>
-  <si>
     <t>SGD</t>
   </si>
   <si>
-    <t>China Sunsine Chemical Holdings Ltd</t>
-  </si>
-  <si>
-    <t>Wilmar International Ltd</t>
-  </si>
-  <si>
-    <t>Frank's International NV</t>
+    <t>Gilead Sciences Inc.</t>
+  </si>
+  <si>
+    <t>GlaxoSmithKline Plc</t>
   </si>
   <si>
     <t>29/12/1899</t>
   </si>
   <si>
-    <t>Gilead Sciences Inc.</t>
-  </si>
-  <si>
     <t>Computer Hardware</t>
   </si>
   <si>
     <t>Technology</t>
   </si>
   <si>
-    <t>GlaxoSmithKline Plc</t>
-  </si>
-  <si>
     <t>ABC:xlon</t>
   </si>
   <si>
@@ -239,6 +236,12 @@
     <t>Singapore Exchange</t>
   </si>
   <si>
+    <t>Heineken</t>
+  </si>
+  <si>
+    <t>IG Group Holdings Plc</t>
+  </si>
+  <si>
     <t>Specialty Chemicals</t>
   </si>
   <si>
@@ -248,16 +251,25 @@
     <t>F34:xses</t>
   </si>
   <si>
+    <t>Mastercard Inc.</t>
+  </si>
+  <si>
+    <t>Software AG</t>
+  </si>
+  <si>
     <t>Food Products</t>
   </si>
   <si>
     <t>Consumer Goods</t>
   </si>
   <si>
-    <t>Heineken</t>
-  </si>
-  <si>
-    <t>IG Group Holdings Plc</t>
+    <t>Vestas Wind Systems A/S</t>
+  </si>
+  <si>
+    <t>Schaeffler AG - Preferred Share</t>
+  </si>
+  <si>
+    <t>Bought</t>
   </si>
   <si>
     <t>FI:xnys</t>
@@ -269,21 +281,30 @@
     <t>Oil Equipment &amp; Services</t>
   </si>
   <si>
-    <t>Mastercard Inc.</t>
-  </si>
-  <si>
     <t>Oil &amp; Gas</t>
   </si>
   <si>
-    <t>Software AG</t>
-  </si>
-  <si>
-    <t>Vestas Wind Systems A/S</t>
+    <t>Sold</t>
+  </si>
+  <si>
+    <t>Close</t>
   </si>
   <si>
     <t>GILD:xnas</t>
   </si>
   <si>
+    <t>JD.com Inc.</t>
+  </si>
+  <si>
+    <t>GSK:xlon</t>
+  </si>
+  <si>
+    <t>Pharmaceuticals</t>
+  </si>
+  <si>
+    <t>Steinhoff International Holdings NV</t>
+  </si>
+  <si>
     <t>Cash inter-account transfer</t>
   </si>
   <si>
@@ -293,40 +314,16 @@
     <t>Cash Amount</t>
   </si>
   <si>
-    <t>Schaeffler AG - Preferred Share</t>
-  </si>
-  <si>
-    <t>GSK:xlon</t>
+    <t>VEON Ltd</t>
   </si>
   <si>
     <t>Commission</t>
   </si>
   <si>
-    <t>Pharmaceuticals</t>
-  </si>
-  <si>
     <t>Singapore Clearing Fee</t>
   </si>
   <si>
-    <t>Bought</t>
-  </si>
-  <si>
-    <t>JD.com Inc.</t>
-  </si>
-  <si>
-    <t>Sold</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>Steinhoff International Holdings NV</t>
-  </si>
-  <si>
     <t>Exchange Fee</t>
-  </si>
-  <si>
-    <t>VEON Ltd</t>
   </si>
   <si>
     <t>HEIA:xams</t>
@@ -434,10 +431,10 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -472,7 +469,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="12.14"/>
-    <col customWidth="1" min="2" max="2" width="18.57"/>
+    <col customWidth="1" min="2" max="2" width="15.43"/>
     <col customWidth="1" min="3" max="3" width="32.43"/>
     <col customWidth="1" min="4" max="4" width="11.71"/>
     <col customWidth="1" min="5" max="6" width="10.86"/>
@@ -486,65 +483,65 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2">
         <v>1.166860285E9</v>
       </c>
-      <c r="B2" t="s">
-        <v>38</v>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="1">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2">
         <v>42912.0</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2">
         <v>29.0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>34.0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>435.0</v>
       </c>
       <c r="J2">
@@ -558,28 +555,28 @@
       <c r="A3">
         <v>1.166860287E9</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="1">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2">
         <v>42912.0</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G3">
         <v>410.0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>234.0</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>54.0</v>
       </c>
       <c r="J3">
@@ -593,28 +590,28 @@
       <c r="A4">
         <v>1.166860289E9</v>
       </c>
-      <c r="B4" t="s">
-        <v>38</v>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="1">
+        <v>53</v>
+      </c>
+      <c r="D4" s="2">
         <v>42912.0</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G4">
         <v>5400.0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>234.0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>34.0</v>
       </c>
       <c r="J4">
@@ -628,28 +625,28 @@
       <c r="A5">
         <v>1.166860291E9</v>
       </c>
-      <c r="B5" t="s">
-        <v>38</v>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1">
+        <v>54</v>
+      </c>
+      <c r="D5" s="2">
         <v>42912.0</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G5">
         <v>1000.0</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>23423.0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>345.0</v>
       </c>
       <c r="J5">
@@ -663,25 +660,25 @@
       <c r="A6">
         <v>1.166860293E9</v>
       </c>
-      <c r="B6" t="s">
-        <v>38</v>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="1">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2">
         <v>42912.0</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G6">
         <v>116.0</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>423.0</v>
       </c>
       <c r="I6">
@@ -698,28 +695,28 @@
       <c r="A7">
         <v>1.166860295E9</v>
       </c>
-      <c r="B7" t="s">
-        <v>38</v>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="1">
+        <v>61</v>
+      </c>
+      <c r="D7" s="2">
         <v>42912.0</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G7">
         <v>36.0</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>423.0</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>77.0</v>
       </c>
       <c r="J7">
@@ -733,28 +730,28 @@
       <c r="A8">
         <v>1.166860297E9</v>
       </c>
-      <c r="B8" t="s">
-        <v>38</v>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="1">
+        <v>62</v>
+      </c>
+      <c r="D8" s="2">
         <v>42912.0</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G8">
         <v>75.0</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>4343.0</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>87.0</v>
       </c>
       <c r="J8">
@@ -768,28 +765,28 @@
       <c r="A9">
         <v>1.166860299E9</v>
       </c>
-      <c r="B9" t="s">
-        <v>38</v>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="1">
+        <v>62</v>
+      </c>
+      <c r="D9" s="2">
         <v>42912.0</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G9">
         <v>155.0</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>434.0</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>879.0</v>
       </c>
       <c r="J9">
@@ -803,25 +800,25 @@
       <c r="A10">
         <v>1.166860301E9</v>
       </c>
-      <c r="B10" t="s">
-        <v>38</v>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="1">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2">
         <v>42912.0</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G10">
         <v>1.0</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>32.0</v>
       </c>
       <c r="I10">
@@ -838,20 +835,20 @@
       <c r="A11">
         <v>1.166860303E9</v>
       </c>
-      <c r="B11" t="s">
-        <v>38</v>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="1">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2">
         <v>42912.0</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G11">
         <v>1.0</v>
@@ -873,20 +870,20 @@
       <c r="A12">
         <v>1.166860305E9</v>
       </c>
-      <c r="B12" t="s">
-        <v>38</v>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="1">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2">
         <v>42912.0</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G12">
         <v>1.0</v>
@@ -908,20 +905,20 @@
       <c r="A13">
         <v>1.166860307E9</v>
       </c>
-      <c r="B13" t="s">
-        <v>38</v>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="1">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2">
         <v>42912.0</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G13">
         <v>1.0</v>
@@ -943,20 +940,20 @@
       <c r="A14">
         <v>1.166860309E9</v>
       </c>
-      <c r="B14" t="s">
-        <v>38</v>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="1">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2">
         <v>42912.0</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G14">
         <v>1.0</v>
@@ -978,20 +975,20 @@
       <c r="A15">
         <v>1.166860311E9</v>
       </c>
-      <c r="B15" t="s">
-        <v>38</v>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="1">
+        <v>62</v>
+      </c>
+      <c r="D15" s="2">
         <v>42912.0</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G15">
         <v>1.0</v>
@@ -1013,20 +1010,20 @@
       <c r="A16">
         <v>1.166860313E9</v>
       </c>
-      <c r="B16" t="s">
-        <v>38</v>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="1">
+        <v>62</v>
+      </c>
+      <c r="D16" s="2">
         <v>42912.0</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G16">
         <v>2.0</v>
@@ -1048,20 +1045,20 @@
       <c r="A17">
         <v>1.166860315E9</v>
       </c>
-      <c r="B17" t="s">
-        <v>38</v>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="1">
+        <v>62</v>
+      </c>
+      <c r="D17" s="2">
         <v>42912.0</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G17">
         <v>3.0</v>
@@ -1083,28 +1080,28 @@
       <c r="A18">
         <v>1.166860317E9</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="1">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2">
         <v>42912.0</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G18">
         <v>42.0</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>2342.0</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>345.0</v>
       </c>
       <c r="J18">
@@ -1118,28 +1115,28 @@
       <c r="A19">
         <v>1.166860319E9</v>
       </c>
-      <c r="B19" t="s">
-        <v>38</v>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="1">
+        <v>73</v>
+      </c>
+      <c r="D19" s="2">
         <v>42912.0</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>326.0</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>234.0</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>76.0</v>
       </c>
       <c r="J19">
@@ -1153,25 +1150,25 @@
       <c r="A20">
         <v>1.166860321E9</v>
       </c>
-      <c r="B20" t="s">
-        <v>38</v>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="1">
+        <v>73</v>
+      </c>
+      <c r="D20" s="2">
         <v>42912.0</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G20">
         <v>3.0</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>23.0</v>
       </c>
       <c r="I20">
@@ -1188,28 +1185,28 @@
       <c r="A21">
         <v>1.166860323E9</v>
       </c>
-      <c r="B21" t="s">
-        <v>38</v>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="1">
+        <v>77</v>
+      </c>
+      <c r="D21" s="2">
         <v>42912.0</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G21">
         <v>47.0</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>234.0</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>6776.0</v>
       </c>
       <c r="J21">
@@ -1223,20 +1220,20 @@
       <c r="A22">
         <v>1.166860325E9</v>
       </c>
-      <c r="B22" t="s">
-        <v>38</v>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="1">
+        <v>78</v>
+      </c>
+      <c r="D22" s="2">
         <v>42912.0</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G22">
         <v>98.0</v>
@@ -1244,7 +1241,7 @@
       <c r="H22">
         <v>24.21</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>45.0</v>
       </c>
       <c r="J22">
@@ -1258,28 +1255,28 @@
       <c r="A23">
         <v>1.166860327E9</v>
       </c>
-      <c r="B23" t="s">
-        <v>38</v>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="1">
+        <v>81</v>
+      </c>
+      <c r="D23" s="2">
         <v>42912.0</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G23">
         <v>42.0</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>4534656.0</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>3.0</v>
       </c>
       <c r="J23">
@@ -1293,34 +1290,34 @@
       <c r="A24">
         <v>1.18434318E9</v>
       </c>
-      <c r="B24" t="s">
-        <v>38</v>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="1">
+        <v>82</v>
+      </c>
+      <c r="D24" s="2">
         <v>42940.0</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G24">
         <v>221.0</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>6546.0</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <v>23.0</v>
       </c>
       <c r="J24">
         <v>0.0</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <v>346.0</v>
       </c>
     </row>
@@ -1328,20 +1325,20 @@
       <c r="A25">
         <v>1.187438734E9</v>
       </c>
-      <c r="B25" t="s">
-        <v>38</v>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="1">
+        <v>62</v>
+      </c>
+      <c r="D25" s="2">
         <v>42943.0</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G25">
         <v>2.0</v>
@@ -1363,34 +1360,34 @@
       <c r="A26">
         <v>1.21448619E9</v>
       </c>
-      <c r="B26" t="s">
-        <v>38</v>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="1">
+        <v>54</v>
+      </c>
+      <c r="D26" s="2">
         <v>42991.0</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G26">
         <v>-1000.0</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>54645.0</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <v>345657.0</v>
       </c>
       <c r="J26">
         <v>0.0</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <v>657.0</v>
       </c>
     </row>
@@ -1398,20 +1395,20 @@
       <c r="A27">
         <v>1.233836115E9</v>
       </c>
-      <c r="B27" t="s">
-        <v>38</v>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="1">
+        <v>62</v>
+      </c>
+      <c r="D27" s="2">
         <v>43027.0</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G27">
         <v>1.0</v>
@@ -1433,34 +1430,34 @@
       <c r="A28">
         <v>1.237335257E9</v>
       </c>
-      <c r="B28" t="s">
-        <v>38</v>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="1">
+        <v>91</v>
+      </c>
+      <c r="D28" s="2">
         <v>43033.0</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G28">
         <v>77.0</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>4565.0</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="1">
         <v>35.0</v>
       </c>
       <c r="J28">
         <v>0.0</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="1">
         <v>768.0</v>
       </c>
     </row>
@@ -1468,20 +1465,20 @@
       <c r="A29">
         <v>1.241744845E9</v>
       </c>
-      <c r="B29" t="s">
-        <v>38</v>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="1">
+        <v>73</v>
+      </c>
+      <c r="D29" s="2">
         <v>43041.0</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G29">
         <v>5.0</v>
@@ -1489,7 +1486,7 @@
       <c r="H29">
         <v>0.0</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <v>35.0</v>
       </c>
       <c r="J29">
@@ -1503,34 +1500,34 @@
       <c r="A30">
         <v>1.24553076E9</v>
       </c>
-      <c r="B30" t="s">
-        <v>38</v>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="1">
+        <v>81</v>
+      </c>
+      <c r="D30" s="2">
         <v>43048.0</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G30">
         <v>33.0</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>4566.0</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <v>34.0</v>
       </c>
       <c r="J30">
         <v>0.0</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="1">
         <v>678.0</v>
       </c>
     </row>
@@ -1538,34 +1535,34 @@
       <c r="A31">
         <v>1.251840261E9</v>
       </c>
-      <c r="B31" t="s">
-        <v>38</v>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="1">
+        <v>78</v>
+      </c>
+      <c r="D31" s="2">
         <v>43060.0</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G31">
         <v>-98.0</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>4.0</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <v>54.0</v>
       </c>
       <c r="J31">
         <v>0.0</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1">
         <v>43.0</v>
       </c>
     </row>
@@ -1573,34 +1570,34 @@
       <c r="A32">
         <v>1.262379986E9</v>
       </c>
-      <c r="B32" t="s">
-        <v>38</v>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="1">
+        <v>94</v>
+      </c>
+      <c r="D32" s="2">
         <v>43076.0</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G32">
         <v>1305.0</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>645.0</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="1">
         <v>5.0</v>
       </c>
       <c r="J32">
         <v>0.0</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1">
         <v>89.0</v>
       </c>
     </row>
@@ -1608,34 +1605,34 @@
       <c r="A33">
         <v>1.2624345E9</v>
       </c>
-      <c r="B33" t="s">
-        <v>38</v>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="1">
+        <v>55</v>
+      </c>
+      <c r="D33" s="2">
         <v>43076.0</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F33" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G33">
         <v>-116.0</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>465.0</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <v>345.0</v>
       </c>
       <c r="J33">
         <v>0.0</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="1">
         <v>7866.0</v>
       </c>
     </row>
@@ -1643,34 +1640,34 @@
       <c r="A34">
         <v>1.26346989E9</v>
       </c>
-      <c r="B34" t="s">
-        <v>38</v>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="1">
+        <v>98</v>
+      </c>
+      <c r="D34" s="2">
         <v>43077.0</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G34">
         <v>669.0</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>465.0</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <v>345.0</v>
       </c>
       <c r="J34">
         <v>0.0</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="1">
         <v>678.0</v>
       </c>
     </row>
@@ -2703,55 +2700,55 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
         <v>22</v>
-      </c>
-      <c r="M1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>7</v>
       </c>
       <c r="R1" t="s">
         <v>26</v>
@@ -2760,92 +2757,92 @@
         <v>27</v>
       </c>
       <c r="T1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD1" t="s">
         <v>39</v>
       </c>
       <c r="AE1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>46</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>47</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>48</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2">
         <v>1.166860285E9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2">
         <v>29.0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>342.0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>324.0</v>
       </c>
       <c r="J2">
@@ -2861,22 +2858,22 @@
         <v>57</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="1">
+        <v>19</v>
+      </c>
+      <c r="O2" s="2">
         <v>42410.0</v>
       </c>
       <c r="P2">
         <v>1.045755794E9</v>
       </c>
       <c r="Q2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R2">
         <v>2.0</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T2">
         <v>0.0</v>
@@ -2885,13 +2882,13 @@
         <v>0.0</v>
       </c>
       <c r="V2" t="s">
-        <v>58</v>
-      </c>
-      <c r="W2" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W2" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA2">
         <v>2.0</v>
@@ -2917,14 +2914,14 @@
       <c r="AI2">
         <v>0.0</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AJ2" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK2">
         <v>211.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AM2" t="s">
         <v>56</v>
@@ -2934,28 +2931,28 @@
       <c r="A3">
         <v>1.166860287E9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G3">
         <v>410.0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>234234.0</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>23.0</v>
       </c>
       <c r="J3">
@@ -2965,28 +2962,28 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" t="s">
         <v>67</v>
       </c>
-      <c r="M3" t="s">
-        <v>68</v>
-      </c>
       <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="1">
+        <v>19</v>
+      </c>
+      <c r="O3" s="2">
         <v>41771.0</v>
       </c>
       <c r="P3">
         <v>1.045755796E9</v>
       </c>
       <c r="Q3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R3">
         <v>2.0</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T3">
         <v>0.0</v>
@@ -2995,25 +2992,25 @@
         <v>0.0</v>
       </c>
       <c r="V3" t="s">
-        <v>58</v>
-      </c>
-      <c r="W3" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W3" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA3">
         <v>2.0</v>
       </c>
       <c r="AB3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC3">
         <v>631.0</v>
       </c>
       <c r="AE3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF3">
         <v>505.0</v>
@@ -3027,45 +3024,45 @@
       <c r="AI3">
         <v>0.0</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AJ3" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK3">
         <v>34732.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AM3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4">
         <v>1.166860289E9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G4">
         <v>5400.0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>423.0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>34.0</v>
       </c>
       <c r="J4">
@@ -3075,28 +3072,28 @@
         <v>0.0</v>
       </c>
       <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="s">
         <v>71</v>
       </c>
-      <c r="M4" t="s">
-        <v>72</v>
-      </c>
       <c r="N4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="1">
+        <v>19</v>
+      </c>
+      <c r="O4" s="2">
         <v>42898.0</v>
       </c>
       <c r="P4">
         <v>1.045755798E9</v>
       </c>
       <c r="Q4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R4">
         <v>2.0</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T4">
         <v>0.0</v>
@@ -3105,25 +3102,25 @@
         <v>0.0</v>
       </c>
       <c r="V4" t="s">
-        <v>58</v>
-      </c>
-      <c r="W4" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W4" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA4">
         <v>2.0</v>
       </c>
       <c r="AB4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC4">
         <v>578.0</v>
       </c>
       <c r="AE4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF4">
         <v>502.0</v>
@@ -3137,45 +3134,45 @@
       <c r="AI4">
         <v>0.0</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AJ4" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK4">
         <v>52457.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AM4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5">
         <v>1.166860291E9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G5">
         <v>1000.0</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>4234.0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>324.0</v>
       </c>
       <c r="J5">
@@ -3185,28 +3182,28 @@
         <v>0.0</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="1">
+        <v>19</v>
+      </c>
+      <c r="O5" s="2">
         <v>41823.0</v>
       </c>
       <c r="P5">
         <v>1.0457558E9</v>
       </c>
       <c r="Q5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R5">
         <v>2.0</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T5">
         <v>0.0</v>
@@ -3215,25 +3212,25 @@
         <v>0.0</v>
       </c>
       <c r="V5" t="s">
-        <v>58</v>
-      </c>
-      <c r="W5" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W5" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA5">
         <v>2.0</v>
       </c>
       <c r="AB5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC5">
         <v>616.0</v>
       </c>
       <c r="AE5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AF5">
         <v>504.0</v>
@@ -3247,45 +3244,45 @@
       <c r="AI5">
         <v>0.0</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK5">
         <v>26792.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6">
         <v>1.166860293E9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E6" t="s">
         <v>50</v>
       </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>53</v>
-      </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G6">
         <v>116.0</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>234.0</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>3432.0</v>
       </c>
       <c r="J6">
@@ -3295,28 +3292,28 @@
         <v>0.0</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="1">
+        <v>19</v>
+      </c>
+      <c r="O6" s="2">
         <v>41600.0</v>
       </c>
       <c r="P6">
         <v>1.045755802E9</v>
       </c>
       <c r="Q6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R6">
         <v>2.0</v>
       </c>
       <c r="S6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T6">
         <v>0.0</v>
@@ -3325,25 +3322,25 @@
         <v>0.0</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
-      </c>
-      <c r="W6" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W6" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA6">
         <v>2.0</v>
       </c>
       <c r="AB6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AC6">
         <v>573.0</v>
       </c>
       <c r="AE6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF6">
         <v>501.0</v>
@@ -3357,45 +3354,45 @@
       <c r="AI6">
         <v>0.0</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AJ6" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK6">
         <v>456961.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7">
         <v>1.166860295E9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G7">
         <v>36.0</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>244.0</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>243.0</v>
       </c>
       <c r="J7">
@@ -3405,28 +3402,28 @@
         <v>0.0</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
         <v>57</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="1">
+        <v>19</v>
+      </c>
+      <c r="O7" s="2">
         <v>42590.0</v>
       </c>
       <c r="P7">
         <v>1.045755804E9</v>
       </c>
       <c r="Q7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R7">
         <v>2.0</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T7">
         <v>0.0</v>
@@ -3435,25 +3432,25 @@
         <v>0.0</v>
       </c>
       <c r="V7" t="s">
-        <v>58</v>
-      </c>
-      <c r="W7" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W7" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA7">
         <v>2.0</v>
       </c>
       <c r="AB7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC7">
         <v>631.0</v>
       </c>
       <c r="AE7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF7">
         <v>505.0</v>
@@ -3467,45 +3464,45 @@
       <c r="AI7">
         <v>0.0</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AJ7" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK7">
         <v>2050.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AM7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8">
         <v>1.166860297E9</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G8">
         <v>75.0</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>2342.0</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>23.0</v>
       </c>
       <c r="J8">
@@ -3518,25 +3515,25 @@
         <v>92</v>
       </c>
       <c r="M8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" s="1">
+        <v>19</v>
+      </c>
+      <c r="O8" s="2">
         <v>41843.0</v>
       </c>
       <c r="P8">
         <v>1.045755806E9</v>
       </c>
       <c r="Q8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R8">
         <v>2.0</v>
       </c>
       <c r="S8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T8">
         <v>0.0</v>
@@ -3545,25 +3542,25 @@
         <v>0.0</v>
       </c>
       <c r="V8" t="s">
-        <v>58</v>
-      </c>
-      <c r="W8" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W8" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA8">
         <v>2.0</v>
       </c>
       <c r="AB8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC8">
         <v>632.0</v>
       </c>
       <c r="AE8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF8">
         <v>505.0</v>
@@ -3577,14 +3574,14 @@
       <c r="AI8">
         <v>0.0</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AJ8" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK8">
         <v>844.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AM8" t="s">
         <v>92</v>
@@ -3594,28 +3591,28 @@
       <c r="A9">
         <v>1.166860299E9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G9">
         <v>155.0</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>424.0</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>23423.0</v>
       </c>
       <c r="J9">
@@ -3628,25 +3625,25 @@
         <v>92</v>
       </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="1">
+        <v>19</v>
+      </c>
+      <c r="O9" s="2">
         <v>42186.0</v>
       </c>
       <c r="P9">
         <v>1.045755808E9</v>
       </c>
       <c r="Q9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R9">
         <v>2.0</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T9">
         <v>0.0</v>
@@ -3655,25 +3652,25 @@
         <v>0.0</v>
       </c>
       <c r="V9" t="s">
-        <v>58</v>
-      </c>
-      <c r="W9" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W9" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA9">
         <v>2.0</v>
       </c>
       <c r="AB9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC9">
         <v>632.0</v>
       </c>
       <c r="AE9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF9">
         <v>505.0</v>
@@ -3687,14 +3684,14 @@
       <c r="AI9">
         <v>0.0</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AJ9" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK9">
         <v>844.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AM9" t="s">
         <v>92</v>
@@ -3704,20 +3701,20 @@
       <c r="A10">
         <v>1.166860301E9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G10">
         <v>1.0</v>
@@ -3738,25 +3735,25 @@
         <v>92</v>
       </c>
       <c r="M10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="1">
+        <v>19</v>
+      </c>
+      <c r="O10" s="2">
         <v>42278.0</v>
       </c>
       <c r="P10">
         <v>1.04575581E9</v>
       </c>
       <c r="Q10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R10">
         <v>2.0</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T10">
         <v>0.0</v>
@@ -3765,25 +3762,25 @@
         <v>0.0</v>
       </c>
       <c r="V10" t="s">
-        <v>58</v>
-      </c>
-      <c r="W10" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W10" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA10">
         <v>2.0</v>
       </c>
       <c r="AB10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC10">
         <v>632.0</v>
       </c>
       <c r="AE10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF10">
         <v>505.0</v>
@@ -3797,14 +3794,14 @@
       <c r="AI10">
         <v>0.0</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AJ10" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK10">
         <v>844.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AM10" t="s">
         <v>92</v>
@@ -3814,20 +3811,20 @@
       <c r="A11">
         <v>1.166860303E9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G11">
         <v>1.0</v>
@@ -3848,25 +3845,25 @@
         <v>92</v>
       </c>
       <c r="M11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="1">
+        <v>19</v>
+      </c>
+      <c r="O11" s="2">
         <v>42383.0</v>
       </c>
       <c r="P11">
         <v>1.045755812E9</v>
       </c>
       <c r="Q11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R11">
         <v>2.0</v>
       </c>
       <c r="S11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T11">
         <v>0.0</v>
@@ -3875,25 +3872,25 @@
         <v>0.0</v>
       </c>
       <c r="V11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W11" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W11" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA11">
         <v>2.0</v>
       </c>
       <c r="AB11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC11">
         <v>632.0</v>
       </c>
       <c r="AE11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF11">
         <v>505.0</v>
@@ -3907,14 +3904,14 @@
       <c r="AI11">
         <v>0.0</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AJ11" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK11">
         <v>844.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AM11" t="s">
         <v>92</v>
@@ -3924,20 +3921,20 @@
       <c r="A12">
         <v>1.166860305E9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G12">
         <v>1.0</v>
@@ -3958,25 +3955,25 @@
         <v>92</v>
       </c>
       <c r="M12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="1">
+        <v>19</v>
+      </c>
+      <c r="O12" s="2">
         <v>42474.0</v>
       </c>
       <c r="P12">
         <v>1.045755814E9</v>
       </c>
       <c r="Q12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R12">
         <v>2.0</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T12">
         <v>0.0</v>
@@ -3985,25 +3982,25 @@
         <v>0.0</v>
       </c>
       <c r="V12" t="s">
-        <v>58</v>
-      </c>
-      <c r="W12" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W12" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA12">
         <v>2.0</v>
       </c>
       <c r="AB12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC12">
         <v>632.0</v>
       </c>
       <c r="AE12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF12">
         <v>505.0</v>
@@ -4017,14 +4014,14 @@
       <c r="AI12">
         <v>0.0</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AJ12" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK12">
         <v>844.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AM12" t="s">
         <v>92</v>
@@ -4034,20 +4031,20 @@
       <c r="A13">
         <v>1.166860307E9</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G13">
         <v>1.0</v>
@@ -4068,25 +4065,25 @@
         <v>92</v>
       </c>
       <c r="M13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="1">
+        <v>19</v>
+      </c>
+      <c r="O13" s="2">
         <v>42474.0</v>
       </c>
       <c r="P13">
         <v>1.045755816E9</v>
       </c>
       <c r="Q13" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R13">
         <v>2.0</v>
       </c>
       <c r="S13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T13">
         <v>0.0</v>
@@ -4095,25 +4092,25 @@
         <v>0.0</v>
       </c>
       <c r="V13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W13" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W13" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA13">
         <v>2.0</v>
       </c>
       <c r="AB13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC13">
         <v>632.0</v>
       </c>
       <c r="AE13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF13">
         <v>505.0</v>
@@ -4127,14 +4124,14 @@
       <c r="AI13">
         <v>0.0</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AJ13" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK13">
         <v>844.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AM13" t="s">
         <v>92</v>
@@ -4144,20 +4141,20 @@
       <c r="A14">
         <v>1.166860309E9</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G14">
         <v>1.0</v>
@@ -4178,25 +4175,25 @@
         <v>92</v>
       </c>
       <c r="M14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O14" s="1">
+        <v>19</v>
+      </c>
+      <c r="O14" s="2">
         <v>42565.0</v>
       </c>
       <c r="P14">
         <v>1.045755818E9</v>
       </c>
       <c r="Q14" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R14">
         <v>2.0</v>
       </c>
       <c r="S14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T14">
         <v>0.0</v>
@@ -4205,25 +4202,25 @@
         <v>0.0</v>
       </c>
       <c r="V14" t="s">
-        <v>58</v>
-      </c>
-      <c r="W14" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W14" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA14">
         <v>2.0</v>
       </c>
       <c r="AB14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC14">
         <v>632.0</v>
       </c>
       <c r="AE14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF14">
         <v>505.0</v>
@@ -4237,14 +4234,14 @@
       <c r="AI14">
         <v>0.0</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AJ14" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK14">
         <v>844.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AM14" t="s">
         <v>92</v>
@@ -4254,20 +4251,20 @@
       <c r="A15">
         <v>1.166860311E9</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G15">
         <v>1.0</v>
@@ -4288,25 +4285,25 @@
         <v>92</v>
       </c>
       <c r="M15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="1">
+        <v>19</v>
+      </c>
+      <c r="O15" s="2">
         <v>42656.0</v>
       </c>
       <c r="P15">
         <v>1.04575582E9</v>
       </c>
       <c r="Q15" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R15">
         <v>2.0</v>
       </c>
       <c r="S15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T15">
         <v>0.0</v>
@@ -4315,25 +4312,25 @@
         <v>0.0</v>
       </c>
       <c r="V15" t="s">
-        <v>58</v>
-      </c>
-      <c r="W15" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W15" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA15">
         <v>2.0</v>
       </c>
       <c r="AB15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC15">
         <v>632.0</v>
       </c>
       <c r="AE15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF15">
         <v>505.0</v>
@@ -4347,14 +4344,14 @@
       <c r="AI15">
         <v>0.0</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AJ15" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK15">
         <v>844.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AM15" t="s">
         <v>92</v>
@@ -4364,20 +4361,20 @@
       <c r="A16">
         <v>1.166860313E9</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E16" t="s">
         <v>50</v>
       </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>53</v>
-      </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G16">
         <v>2.0</v>
@@ -4398,25 +4395,25 @@
         <v>92</v>
       </c>
       <c r="M16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="1">
+        <v>19</v>
+      </c>
+      <c r="O16" s="2">
         <v>42747.0</v>
       </c>
       <c r="P16">
         <v>1.045755822E9</v>
       </c>
       <c r="Q16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R16">
         <v>2.0</v>
       </c>
       <c r="S16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T16">
         <v>0.0</v>
@@ -4425,25 +4422,25 @@
         <v>0.0</v>
       </c>
       <c r="V16" t="s">
-        <v>58</v>
-      </c>
-      <c r="W16" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W16" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA16">
         <v>2.0</v>
       </c>
       <c r="AB16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC16">
         <v>632.0</v>
       </c>
       <c r="AE16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF16">
         <v>505.0</v>
@@ -4457,14 +4454,14 @@
       <c r="AI16">
         <v>0.0</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="AJ16" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK16">
         <v>844.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AM16" t="s">
         <v>92</v>
@@ -4474,20 +4471,20 @@
       <c r="A17">
         <v>1.166860315E9</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G17">
         <v>3.0</v>
@@ -4508,25 +4505,25 @@
         <v>92</v>
       </c>
       <c r="M17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N17" t="s">
-        <v>23</v>
-      </c>
-      <c r="O17" s="1">
+        <v>19</v>
+      </c>
+      <c r="O17" s="2">
         <v>42838.0</v>
       </c>
       <c r="P17">
         <v>1.045755824E9</v>
       </c>
       <c r="Q17" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R17">
         <v>2.0</v>
       </c>
       <c r="S17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T17">
         <v>0.0</v>
@@ -4535,25 +4532,25 @@
         <v>0.0</v>
       </c>
       <c r="V17" t="s">
-        <v>58</v>
-      </c>
-      <c r="W17" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W17" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA17">
         <v>2.0</v>
       </c>
       <c r="AB17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC17">
         <v>632.0</v>
       </c>
       <c r="AE17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF17">
         <v>505.0</v>
@@ -4567,14 +4564,14 @@
       <c r="AI17">
         <v>0.0</v>
       </c>
-      <c r="AJ17" s="1">
+      <c r="AJ17" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK17">
         <v>844.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AM17" t="s">
         <v>92</v>
@@ -4584,28 +4581,28 @@
       <c r="A18">
         <v>1.166860317E9</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G18">
         <v>42.0</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>24323.0</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>432.0</v>
       </c>
       <c r="J18">
@@ -4615,28 +4612,28 @@
         <v>0.0</v>
       </c>
       <c r="L18" t="s">
+        <v>102</v>
+      </c>
+      <c r="M18" t="s">
         <v>103</v>
       </c>
-      <c r="M18" t="s">
-        <v>104</v>
-      </c>
       <c r="N18" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" s="1">
+        <v>19</v>
+      </c>
+      <c r="O18" s="2">
         <v>41611.0</v>
       </c>
       <c r="P18">
         <v>1.045755826E9</v>
       </c>
       <c r="Q18" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R18">
         <v>2.0</v>
       </c>
       <c r="S18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T18">
         <v>0.0</v>
@@ -4645,25 +4642,25 @@
         <v>0.0</v>
       </c>
       <c r="V18" t="s">
-        <v>58</v>
-      </c>
-      <c r="W18" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W18" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA18">
         <v>2.0</v>
       </c>
       <c r="AB18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AC18">
         <v>612.0</v>
       </c>
       <c r="AE18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AF18">
         <v>504.0</v>
@@ -4677,45 +4674,45 @@
       <c r="AI18">
         <v>0.0</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AJ18" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK18">
         <v>111720.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AM18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19">
         <v>1.166860319E9</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E19" t="s">
         <v>50</v>
       </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G19">
         <v>326.0</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>344.0</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>324.0</v>
       </c>
       <c r="J19">
@@ -4725,28 +4722,28 @@
         <v>0.0</v>
       </c>
       <c r="L19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" s="1">
+        <v>19</v>
+      </c>
+      <c r="O19" s="2">
         <v>42768.0</v>
       </c>
       <c r="P19">
         <v>1.045755828E9</v>
       </c>
       <c r="Q19" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R19">
         <v>2.0</v>
       </c>
       <c r="S19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T19">
         <v>0.0</v>
@@ -4755,25 +4752,25 @@
         <v>0.0</v>
       </c>
       <c r="V19" t="s">
-        <v>58</v>
-      </c>
-      <c r="W19" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W19" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA19">
         <v>2.0</v>
       </c>
       <c r="AB19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC19">
         <v>674.0</v>
       </c>
       <c r="AE19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF19">
         <v>509.0</v>
@@ -4787,42 +4784,42 @@
       <c r="AI19">
         <v>0.0</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AJ19" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK19">
         <v>15899.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AM19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20">
         <v>1.166860321E9</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>53</v>
-      </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G20">
         <v>3.0</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>2.0</v>
       </c>
       <c r="I20">
@@ -4835,28 +4832,28 @@
         <v>0.0</v>
       </c>
       <c r="L20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N20" t="s">
-        <v>23</v>
-      </c>
-      <c r="O20" s="1">
+        <v>19</v>
+      </c>
+      <c r="O20" s="2">
         <v>42797.0</v>
       </c>
       <c r="P20">
         <v>1.04575583E9</v>
       </c>
       <c r="Q20" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R20">
         <v>2.0</v>
       </c>
       <c r="S20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T20">
         <v>0.0</v>
@@ -4865,25 +4862,25 @@
         <v>0.0</v>
       </c>
       <c r="V20" t="s">
-        <v>58</v>
-      </c>
-      <c r="W20" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W20" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA20">
         <v>2.0</v>
       </c>
       <c r="AB20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC20">
         <v>674.0</v>
       </c>
       <c r="AE20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF20">
         <v>509.0</v>
@@ -4897,45 +4894,45 @@
       <c r="AI20">
         <v>0.0</v>
       </c>
-      <c r="AJ20" s="1">
+      <c r="AJ20" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK20">
         <v>15899.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AM20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21">
         <v>1.166860323E9</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="C21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>53</v>
-      </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G21">
         <v>47.0</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>224.0</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>232.0</v>
       </c>
       <c r="J21">
@@ -4945,28 +4942,28 @@
         <v>0.0</v>
       </c>
       <c r="L21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N21" t="s">
-        <v>23</v>
-      </c>
-      <c r="O21" s="1">
+        <v>19</v>
+      </c>
+      <c r="O21" s="2">
         <v>41680.0</v>
       </c>
       <c r="P21">
         <v>1.045755832E9</v>
       </c>
       <c r="Q21" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R21">
         <v>2.0</v>
       </c>
       <c r="S21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T21">
         <v>0.0</v>
@@ -4975,25 +4972,25 @@
         <v>0.0</v>
       </c>
       <c r="V21" t="s">
-        <v>58</v>
-      </c>
-      <c r="W21" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W21" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA21">
         <v>2.0</v>
       </c>
       <c r="AB21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AC21">
         <v>672.0</v>
       </c>
       <c r="AE21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF21">
         <v>509.0</v>
@@ -5007,45 +5004,45 @@
       <c r="AI21">
         <v>0.0</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AJ21" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK21">
         <v>21808.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22">
         <v>1.166860325E9</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E22" t="s">
         <v>50</v>
       </c>
-      <c r="C22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>53</v>
-      </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G22">
         <v>98.0</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>2.0</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>2332.0</v>
       </c>
       <c r="J22">
@@ -5055,28 +5052,28 @@
         <v>0.0</v>
       </c>
       <c r="L22" t="s">
+        <v>110</v>
+      </c>
+      <c r="M22" t="s">
         <v>111</v>
       </c>
-      <c r="M22" t="s">
-        <v>112</v>
-      </c>
       <c r="N22" t="s">
-        <v>23</v>
-      </c>
-      <c r="O22" s="1">
+        <v>19</v>
+      </c>
+      <c r="O22" s="2">
         <v>41835.0</v>
       </c>
       <c r="P22">
         <v>1.045755834E9</v>
       </c>
       <c r="Q22" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R22">
         <v>2.0</v>
       </c>
       <c r="S22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T22">
         <v>0.0</v>
@@ -5085,19 +5082,19 @@
         <v>0.0</v>
       </c>
       <c r="V22" t="s">
-        <v>58</v>
-      </c>
-      <c r="W22" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W22" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA22">
         <v>2.0</v>
       </c>
       <c r="AB22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC22">
         <v>680.0</v>
@@ -5117,45 +5114,45 @@
       <c r="AI22">
         <v>0.0</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AJ22" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK22">
         <v>26673.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AM22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23">
         <v>1.166860327E9</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="E23" t="s">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
-      </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G23">
         <v>42.0</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>4242.0</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>242.0</v>
       </c>
       <c r="J23">
@@ -5165,28 +5162,28 @@
         <v>0.0</v>
       </c>
       <c r="L23" t="s">
+        <v>113</v>
+      </c>
+      <c r="M23" t="s">
         <v>114</v>
       </c>
-      <c r="M23" t="s">
-        <v>115</v>
-      </c>
       <c r="N23" t="s">
-        <v>23</v>
-      </c>
-      <c r="O23" s="1">
+        <v>19</v>
+      </c>
+      <c r="O23" s="2">
         <v>42717.0</v>
       </c>
       <c r="P23">
         <v>1.045755836E9</v>
       </c>
       <c r="Q23" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R23">
         <v>2.0</v>
       </c>
       <c r="S23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T23">
         <v>0.0</v>
@@ -5195,25 +5192,25 @@
         <v>0.0</v>
       </c>
       <c r="V23" t="s">
-        <v>58</v>
-      </c>
-      <c r="W23" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="W23" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA23">
         <v>2.0</v>
       </c>
       <c r="AB23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC23">
         <v>575.0</v>
       </c>
       <c r="AE23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF23">
         <v>501.0</v>
@@ -5227,103 +5224,103 @@
       <c r="AI23">
         <v>0.0</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="AJ23" s="2">
         <v>42912.0</v>
       </c>
       <c r="AK23">
         <v>15611.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AM23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24">
         <v>1.18434318E9</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>50</v>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="1">
+        <v>82</v>
+      </c>
+      <c r="D24" s="2">
         <v>42940.0</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G24">
         <v>221.0</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>4224.0</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <v>34.0</v>
       </c>
       <c r="J24">
         <v>0.0</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <v>2323.0</v>
       </c>
       <c r="L24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24" s="1">
+        <v>19</v>
+      </c>
+      <c r="O24" s="2">
         <v>42942.0</v>
       </c>
       <c r="P24">
         <v>1.063663343E9</v>
       </c>
       <c r="Q24" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R24">
         <v>2.0</v>
       </c>
       <c r="S24" t="s">
-        <v>58</v>
-      </c>
-      <c r="T24" s="2">
+        <v>60</v>
+      </c>
+      <c r="T24" s="1">
         <v>35345.0</v>
       </c>
-      <c r="U24" s="2">
+      <c r="U24" s="1">
         <v>435.0</v>
       </c>
       <c r="V24" t="s">
-        <v>58</v>
-      </c>
-      <c r="W24" s="1">
+        <v>60</v>
+      </c>
+      <c r="W24" s="2">
         <v>42940.0</v>
       </c>
-      <c r="X24" s="1" t="s">
-        <v>62</v>
+      <c r="X24" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA24">
         <v>2.0</v>
       </c>
       <c r="AB24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC24">
         <v>610.0</v>
       </c>
       <c r="AE24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AF24">
         <v>504.0</v>
@@ -5337,103 +5334,103 @@
       <c r="AI24">
         <v>0.0</v>
       </c>
-      <c r="AJ24" s="1">
+      <c r="AJ24" s="2">
         <v>42940.0</v>
       </c>
       <c r="AK24">
         <v>3895955.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AM24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25">
         <v>1.187438734E9</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="2">
+        <v>42943.0</v>
+      </c>
+      <c r="E25" t="s">
         <v>50</v>
       </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="1">
-        <v>42943.0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>53</v>
-      </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G25">
         <v>2.0</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>4.0</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>3.0</v>
       </c>
       <c r="J25">
         <v>0.0</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
         <v>23.0</v>
       </c>
       <c r="L25" t="s">
         <v>92</v>
       </c>
       <c r="M25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N25" t="s">
-        <v>23</v>
-      </c>
-      <c r="O25" s="1">
+        <v>19</v>
+      </c>
+      <c r="O25" s="2">
         <v>42929.0</v>
       </c>
       <c r="P25">
         <v>1.066800397E9</v>
       </c>
       <c r="Q25" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R25">
         <v>2.0</v>
       </c>
       <c r="S25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T25">
         <v>0.0</v>
       </c>
-      <c r="U25" s="2">
+      <c r="U25" s="1">
         <v>34.0</v>
       </c>
       <c r="V25" t="s">
-        <v>58</v>
-      </c>
-      <c r="W25" s="1">
+        <v>60</v>
+      </c>
+      <c r="W25" s="2">
         <v>42943.0</v>
       </c>
-      <c r="X25" s="1" t="s">
-        <v>62</v>
+      <c r="X25" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA25">
         <v>2.0</v>
       </c>
       <c r="AB25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC25">
         <v>632.0</v>
       </c>
       <c r="AE25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF25">
         <v>505.0</v>
@@ -5447,14 +5444,14 @@
       <c r="AI25">
         <v>0.0</v>
       </c>
-      <c r="AJ25" s="1">
+      <c r="AJ25" s="2">
         <v>42943.0</v>
       </c>
       <c r="AK25">
         <v>844.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AM25" t="s">
         <v>92</v>
@@ -5464,86 +5461,86 @@
       <c r="A26">
         <v>1.21448619E9</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>50</v>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="1">
+        <v>54</v>
+      </c>
+      <c r="D26" s="2">
         <v>42991.0</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G26">
         <v>-1000.0</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>2.0</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <v>3.0</v>
       </c>
       <c r="J26">
         <v>0.0</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <v>232.0</v>
       </c>
       <c r="L26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N26" t="s">
-        <v>23</v>
-      </c>
-      <c r="O26" s="1">
+        <v>19</v>
+      </c>
+      <c r="O26" s="2">
         <v>42996.0</v>
       </c>
       <c r="P26">
         <v>1.094572955E9</v>
       </c>
       <c r="Q26" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R26">
         <v>2.0</v>
       </c>
       <c r="S26" t="s">
-        <v>58</v>
-      </c>
-      <c r="T26" s="2">
+        <v>60</v>
+      </c>
+      <c r="T26" s="1">
         <v>34535.0</v>
       </c>
-      <c r="U26" s="2">
+      <c r="U26" s="1">
         <v>345.0</v>
       </c>
       <c r="V26" t="s">
-        <v>58</v>
-      </c>
-      <c r="W26" s="1">
+        <v>60</v>
+      </c>
+      <c r="W26" s="2">
         <v>42991.0</v>
       </c>
-      <c r="X26" s="1" t="s">
-        <v>62</v>
+      <c r="X26" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA26">
         <v>2.0</v>
       </c>
       <c r="AB26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC26">
         <v>616.0</v>
       </c>
       <c r="AE26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AF26">
         <v>504.0</v>
@@ -5557,45 +5554,45 @@
       <c r="AI26">
         <v>0.0</v>
       </c>
-      <c r="AJ26" s="1">
+      <c r="AJ26" s="2">
         <v>42991.0</v>
       </c>
       <c r="AK26">
         <v>26792.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AM26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27">
         <v>1.233836115E9</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>50</v>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="1">
+        <v>62</v>
+      </c>
+      <c r="D27" s="2">
         <v>43027.0</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G27">
         <v>1.0</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>4234.0</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="1">
         <v>33.0</v>
       </c>
       <c r="J27">
@@ -5608,52 +5605,52 @@
         <v>92</v>
       </c>
       <c r="M27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N27" t="s">
-        <v>23</v>
-      </c>
-      <c r="O27" s="1">
+        <v>19</v>
+      </c>
+      <c r="O27" s="2">
         <v>43020.0</v>
       </c>
       <c r="P27">
         <v>1.114429074E9</v>
       </c>
       <c r="Q27" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R27">
         <v>2.0</v>
       </c>
       <c r="S27" t="s">
-        <v>58</v>
-      </c>
-      <c r="T27" s="2">
+        <v>60</v>
+      </c>
+      <c r="T27" s="1">
         <v>5.0</v>
       </c>
-      <c r="U27" s="2">
+      <c r="U27" s="1">
         <v>5345.0</v>
       </c>
       <c r="V27" t="s">
-        <v>58</v>
-      </c>
-      <c r="W27" s="1">
+        <v>60</v>
+      </c>
+      <c r="W27" s="2">
         <v>43027.0</v>
       </c>
-      <c r="X27" s="1" t="s">
-        <v>62</v>
+      <c r="X27" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA27">
         <v>2.0</v>
       </c>
       <c r="AB27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC27">
         <v>632.0</v>
       </c>
       <c r="AE27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF27">
         <v>505.0</v>
@@ -5667,14 +5664,14 @@
       <c r="AI27">
         <v>0.0</v>
       </c>
-      <c r="AJ27" s="1">
+      <c r="AJ27" s="2">
         <v>43027.0</v>
       </c>
       <c r="AK27">
         <v>844.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AM27" t="s">
         <v>92</v>
@@ -5684,86 +5681,86 @@
       <c r="A28">
         <v>1.237335257E9</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>50</v>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="1">
+        <v>91</v>
+      </c>
+      <c r="D28" s="2">
         <v>43033.0</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G28">
         <v>77.0</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>24.0</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="1">
         <v>243.0</v>
       </c>
       <c r="J28">
         <v>0.0</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="1">
         <v>23.0</v>
       </c>
       <c r="L28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M28" t="s">
         <v>57</v>
       </c>
       <c r="N28" t="s">
-        <v>23</v>
-      </c>
-      <c r="O28" s="1">
+        <v>19</v>
+      </c>
+      <c r="O28" s="2">
         <v>43035.0</v>
       </c>
       <c r="P28">
         <v>1.1179561E9</v>
       </c>
       <c r="Q28" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R28">
         <v>2.0</v>
       </c>
       <c r="S28" t="s">
-        <v>58</v>
-      </c>
-      <c r="T28" s="2">
+        <v>60</v>
+      </c>
+      <c r="T28" s="1">
         <v>54.0</v>
       </c>
-      <c r="U28" s="2">
+      <c r="U28" s="1">
         <v>534.0</v>
       </c>
       <c r="V28" t="s">
-        <v>58</v>
-      </c>
-      <c r="W28" s="1">
+        <v>60</v>
+      </c>
+      <c r="W28" s="2">
         <v>43033.0</v>
       </c>
-      <c r="X28" s="1" t="s">
-        <v>62</v>
+      <c r="X28" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA28">
         <v>2.0</v>
       </c>
       <c r="AB28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC28">
         <v>636.0</v>
       </c>
       <c r="AE28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF28">
         <v>506.0</v>
@@ -5777,103 +5774,103 @@
       <c r="AI28">
         <v>0.0</v>
       </c>
-      <c r="AJ28" s="1">
+      <c r="AJ28" s="2">
         <v>43033.0</v>
       </c>
       <c r="AK28">
         <v>881301.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AM28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29">
         <v>1.241744845E9</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>50</v>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="1">
+        <v>73</v>
+      </c>
+      <c r="D29" s="2">
         <v>43041.0</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G29">
         <v>5.0</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>2.0</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <v>4324.0</v>
       </c>
       <c r="J29">
         <v>0.0</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="1">
         <v>32.0</v>
       </c>
       <c r="L29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N29" t="s">
-        <v>23</v>
-      </c>
-      <c r="O29" s="1">
+        <v>19</v>
+      </c>
+      <c r="O29" s="2">
         <v>43035.0</v>
       </c>
       <c r="P29">
         <v>1.122426563E9</v>
       </c>
       <c r="Q29" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R29">
         <v>2.0</v>
       </c>
       <c r="S29" t="s">
-        <v>58</v>
-      </c>
-      <c r="T29" s="2">
+        <v>60</v>
+      </c>
+      <c r="T29" s="1">
         <v>32.0</v>
       </c>
-      <c r="U29" s="2">
+      <c r="U29" s="1">
         <v>34.0</v>
       </c>
       <c r="V29" t="s">
-        <v>58</v>
-      </c>
-      <c r="W29" s="1">
+        <v>60</v>
+      </c>
+      <c r="W29" s="2">
         <v>43041.0</v>
       </c>
-      <c r="X29" s="1" t="s">
-        <v>62</v>
+      <c r="X29" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA29">
         <v>2.0</v>
       </c>
       <c r="AB29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC29">
         <v>674.0</v>
       </c>
       <c r="AE29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF29">
         <v>509.0</v>
@@ -5887,103 +5884,103 @@
       <c r="AI29">
         <v>0.0</v>
       </c>
-      <c r="AJ29" s="1">
+      <c r="AJ29" s="2">
         <v>43041.0</v>
       </c>
       <c r="AK29">
         <v>15899.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AM29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30">
         <v>1.24553076E9</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>50</v>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="1">
+        <v>81</v>
+      </c>
+      <c r="D30" s="2">
         <v>43048.0</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G30">
         <v>33.0</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>4234.0</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <v>333.0</v>
       </c>
       <c r="J30">
         <v>0.0</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="1">
         <v>23.0</v>
       </c>
       <c r="L30" t="s">
+        <v>113</v>
+      </c>
+      <c r="M30" t="s">
         <v>114</v>
       </c>
-      <c r="M30" t="s">
-        <v>115</v>
-      </c>
       <c r="N30" t="s">
-        <v>23</v>
-      </c>
-      <c r="O30" s="1">
+        <v>19</v>
+      </c>
+      <c r="O30" s="2">
         <v>43052.0</v>
       </c>
       <c r="P30">
         <v>1.12637509E9</v>
       </c>
       <c r="Q30" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R30">
         <v>2.0</v>
       </c>
       <c r="S30" t="s">
-        <v>58</v>
-      </c>
-      <c r="T30" s="2">
+        <v>60</v>
+      </c>
+      <c r="T30" s="1">
         <v>23235.0</v>
       </c>
-      <c r="U30" s="2">
+      <c r="U30" s="1">
         <v>345.0</v>
       </c>
       <c r="V30" t="s">
-        <v>58</v>
-      </c>
-      <c r="W30" s="1">
+        <v>60</v>
+      </c>
+      <c r="W30" s="2">
         <v>43048.0</v>
       </c>
-      <c r="X30" s="1" t="s">
-        <v>62</v>
+      <c r="X30" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA30">
         <v>2.0</v>
       </c>
       <c r="AB30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AC30">
         <v>575.0</v>
       </c>
       <c r="AE30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF30">
         <v>501.0</v>
@@ -5997,97 +5994,97 @@
       <c r="AI30">
         <v>0.0</v>
       </c>
-      <c r="AJ30" s="1">
+      <c r="AJ30" s="2">
         <v>43048.0</v>
       </c>
       <c r="AK30">
         <v>15611.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AM30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31">
         <v>1.251840261E9</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>50</v>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="1">
+        <v>78</v>
+      </c>
+      <c r="D31" s="2">
         <v>43060.0</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G31">
         <v>-98.0</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>34.0</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <v>55.0</v>
       </c>
       <c r="J31">
         <v>0.0</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1">
         <v>32.0</v>
       </c>
       <c r="L31" t="s">
+        <v>110</v>
+      </c>
+      <c r="M31" t="s">
         <v>111</v>
       </c>
-      <c r="M31" t="s">
-        <v>112</v>
-      </c>
       <c r="N31" t="s">
-        <v>23</v>
-      </c>
-      <c r="O31" s="1">
+        <v>19</v>
+      </c>
+      <c r="O31" s="2">
         <v>43062.0</v>
       </c>
       <c r="P31">
         <v>1.132922193E9</v>
       </c>
       <c r="Q31" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R31">
         <v>2.0</v>
       </c>
       <c r="S31" t="s">
-        <v>58</v>
-      </c>
-      <c r="T31" s="2">
+        <v>60</v>
+      </c>
+      <c r="T31" s="1">
         <v>345.0</v>
       </c>
-      <c r="U31" s="2">
+      <c r="U31" s="1">
         <v>53.0</v>
       </c>
       <c r="V31" t="s">
-        <v>58</v>
-      </c>
-      <c r="W31" s="1">
+        <v>60</v>
+      </c>
+      <c r="W31" s="2">
         <v>43060.0</v>
       </c>
-      <c r="X31" s="1" t="s">
-        <v>62</v>
+      <c r="X31" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA31">
         <v>2.0</v>
       </c>
       <c r="AB31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC31">
         <v>680.0</v>
@@ -6107,103 +6104,103 @@
       <c r="AI31">
         <v>0.0</v>
       </c>
-      <c r="AJ31" s="1">
+      <c r="AJ31" s="2">
         <v>43060.0</v>
       </c>
       <c r="AK31">
         <v>26673.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32">
         <v>1.262379986E9</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>50</v>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="1">
+        <v>94</v>
+      </c>
+      <c r="D32" s="2">
         <v>43076.0</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G32">
         <v>1305.0</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>32.0</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="1">
         <v>2.0</v>
       </c>
       <c r="J32">
         <v>0.0</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1">
         <v>23.0</v>
       </c>
       <c r="L32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N32" t="s">
-        <v>23</v>
-      </c>
-      <c r="O32" s="1">
+        <v>19</v>
+      </c>
+      <c r="O32" s="2">
         <v>43080.0</v>
       </c>
       <c r="P32">
         <v>1.144080432E9</v>
       </c>
       <c r="Q32" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R32">
         <v>2.0</v>
       </c>
       <c r="S32" t="s">
-        <v>58</v>
-      </c>
-      <c r="T32" s="2">
+        <v>60</v>
+      </c>
+      <c r="T32" s="1">
         <v>345.0</v>
       </c>
-      <c r="U32" s="2">
+      <c r="U32" s="1">
         <v>534.0</v>
       </c>
       <c r="V32" t="s">
-        <v>58</v>
-      </c>
-      <c r="W32" s="1">
+        <v>60</v>
+      </c>
+      <c r="W32" s="2">
         <v>43076.0</v>
       </c>
-      <c r="X32" s="1" t="s">
-        <v>62</v>
+      <c r="X32" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA32">
         <v>2.0</v>
       </c>
       <c r="AB32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC32">
         <v>619.0</v>
       </c>
       <c r="AE32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AF32">
         <v>504.0</v>
@@ -6217,103 +6214,103 @@
       <c r="AI32">
         <v>0.0</v>
       </c>
-      <c r="AJ32" s="1">
+      <c r="AJ32" s="2">
         <v>43076.0</v>
       </c>
       <c r="AK32">
         <v>3044316.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AM32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33">
         <v>1.2624345E9</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>50</v>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="1">
+        <v>55</v>
+      </c>
+      <c r="D33" s="2">
         <v>43076.0</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F33" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G33">
         <v>-116.0</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>234.0</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <v>23523.0</v>
       </c>
       <c r="J33">
         <v>0.0</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="1">
         <v>23.0</v>
       </c>
       <c r="L33" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M33" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N33" t="s">
-        <v>23</v>
-      </c>
-      <c r="O33" s="1">
+        <v>19</v>
+      </c>
+      <c r="O33" s="2">
         <v>43080.0</v>
       </c>
       <c r="P33">
         <v>1.144137631E9</v>
       </c>
       <c r="Q33" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R33">
         <v>2.0</v>
       </c>
       <c r="S33" t="s">
-        <v>58</v>
-      </c>
-      <c r="T33" s="2">
+        <v>60</v>
+      </c>
+      <c r="T33" s="1">
         <v>345.0</v>
       </c>
-      <c r="U33" s="2">
+      <c r="U33" s="1">
         <v>345.0</v>
       </c>
       <c r="V33" t="s">
-        <v>58</v>
-      </c>
-      <c r="W33" s="1">
+        <v>60</v>
+      </c>
+      <c r="W33" s="2">
         <v>43076.0</v>
       </c>
-      <c r="X33" s="1" t="s">
-        <v>62</v>
+      <c r="X33" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA33">
         <v>2.0</v>
       </c>
       <c r="AB33" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AC33">
         <v>573.0</v>
       </c>
       <c r="AE33" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AF33">
         <v>501.0</v>
@@ -6327,103 +6324,103 @@
       <c r="AI33">
         <v>0.0</v>
       </c>
-      <c r="AJ33" s="1">
+      <c r="AJ33" s="2">
         <v>43076.0</v>
       </c>
       <c r="AK33">
         <v>456961.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AM33" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34">
         <v>1.26346989E9</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>50</v>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="1">
+        <v>98</v>
+      </c>
+      <c r="D34" s="2">
         <v>43077.0</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G34">
         <v>669.0</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>423.0</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <v>35.0</v>
       </c>
       <c r="J34">
         <v>0.0</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="1">
         <v>232.0</v>
       </c>
       <c r="L34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M34" t="s">
         <v>57</v>
       </c>
       <c r="N34" t="s">
-        <v>23</v>
-      </c>
-      <c r="O34" s="1">
+        <v>19</v>
+      </c>
+      <c r="O34" s="2">
         <v>43081.0</v>
       </c>
       <c r="P34">
         <v>1.145301093E9</v>
       </c>
       <c r="Q34" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R34">
         <v>2.0</v>
       </c>
       <c r="S34" t="s">
-        <v>58</v>
-      </c>
-      <c r="T34" s="2">
+        <v>60</v>
+      </c>
+      <c r="T34" s="1">
         <v>351.0</v>
       </c>
-      <c r="U34" s="2">
+      <c r="U34" s="1">
         <v>535.0</v>
       </c>
       <c r="V34" t="s">
-        <v>58</v>
-      </c>
-      <c r="W34" s="1">
+        <v>60</v>
+      </c>
+      <c r="W34" s="2">
         <v>43077.0</v>
       </c>
-      <c r="X34" s="1" t="s">
-        <v>62</v>
+      <c r="X34" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="AA34">
         <v>2.0</v>
       </c>
       <c r="AB34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AC34">
         <v>650.0</v>
       </c>
       <c r="AE34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF34">
         <v>507.0</v>
@@ -6437,17 +6434,17 @@
       <c r="AI34">
         <v>0.0</v>
       </c>
-      <c r="AJ34" s="1">
+      <c r="AJ34" s="2">
         <v>43077.0</v>
       </c>
       <c r="AK34">
         <v>6608345.0</v>
       </c>
       <c r="AL34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AM34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -7454,40 +7451,40 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
@@ -7497,26 +7494,26 @@
       <c r="B2">
         <v>1.166860285E9</v>
       </c>
-      <c r="C2" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="C2" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2">
         <v>42410.0</v>
       </c>
       <c r="F2">
         <v>5.107475268E9</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J2">
         <v>0.0</v>
@@ -7535,26 +7532,26 @@
       <c r="B3">
         <v>1.166860287E9</v>
       </c>
-      <c r="C3" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C3" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
         <v>41771.0</v>
       </c>
       <c r="F3">
         <v>5.10747527E9</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J3">
         <v>0.0</v>
@@ -7573,26 +7570,26 @@
       <c r="B4">
         <v>1.166860289E9</v>
       </c>
-      <c r="C4" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
         <v>42898.0</v>
       </c>
       <c r="F4">
         <v>5.107475272E9</v>
       </c>
       <c r="G4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
         <v>59</v>
-      </c>
-      <c r="H4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" t="s">
-        <v>52</v>
       </c>
       <c r="J4">
         <v>0.0</v>
@@ -7611,26 +7608,26 @@
       <c r="B5">
         <v>1.166860291E9</v>
       </c>
-      <c r="C5" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
         <v>41823.0</v>
       </c>
       <c r="F5">
         <v>5.107475274E9</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J5">
         <v>0.0</v>
@@ -7649,26 +7646,26 @@
       <c r="B6">
         <v>1.166860293E9</v>
       </c>
-      <c r="C6" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C6" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2">
         <v>41600.0</v>
       </c>
       <c r="F6">
         <v>5.107475276E9</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J6">
         <v>0.0</v>
@@ -7687,26 +7684,26 @@
       <c r="B7">
         <v>1.166860295E9</v>
       </c>
-      <c r="C7" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C7" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2">
         <v>42590.0</v>
       </c>
       <c r="F7">
         <v>5.107475278E9</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J7">
         <v>0.0</v>
@@ -7725,26 +7722,26 @@
       <c r="B8">
         <v>1.166860297E9</v>
       </c>
-      <c r="C8" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="C8" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2">
         <v>41843.0</v>
       </c>
       <c r="F8">
         <v>5.10747528E9</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J8">
         <v>0.0</v>
@@ -7763,26 +7760,26 @@
       <c r="B9">
         <v>1.166860299E9</v>
       </c>
-      <c r="C9" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="C9" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2">
         <v>42186.0</v>
       </c>
       <c r="F9">
         <v>5.107475282E9</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J9">
         <v>0.0</v>
@@ -7801,26 +7798,26 @@
       <c r="B10">
         <v>1.166860301E9</v>
       </c>
-      <c r="C10" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="C10" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2">
         <v>42278.0</v>
       </c>
       <c r="F10">
         <v>5.107475284E9</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J10">
         <v>0.0</v>
@@ -7839,26 +7836,26 @@
       <c r="B11">
         <v>1.166860303E9</v>
       </c>
-      <c r="C11" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="C11" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2">
         <v>42383.0</v>
       </c>
       <c r="F11">
         <v>5.107475286E9</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J11">
         <v>0.0</v>
@@ -7877,26 +7874,26 @@
       <c r="B12">
         <v>1.166860305E9</v>
       </c>
-      <c r="C12" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="C12" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
         <v>42474.0</v>
       </c>
       <c r="F12">
         <v>5.107475288E9</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J12">
         <v>0.0</v>
@@ -7915,26 +7912,26 @@
       <c r="B13">
         <v>1.166860307E9</v>
       </c>
-      <c r="C13" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="C13" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2">
         <v>42474.0</v>
       </c>
       <c r="F13">
         <v>5.10747529E9</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J13">
         <v>0.0</v>
@@ -7953,26 +7950,26 @@
       <c r="B14">
         <v>1.166860309E9</v>
       </c>
-      <c r="C14" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="C14" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2">
         <v>42565.0</v>
       </c>
       <c r="F14">
         <v>5.107475292E9</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J14">
         <v>0.0</v>
@@ -7991,26 +7988,26 @@
       <c r="B15">
         <v>1.166860311E9</v>
       </c>
-      <c r="C15" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="C15" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2">
         <v>42656.0</v>
       </c>
       <c r="F15">
         <v>5.107475294E9</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J15">
         <v>0.0</v>
@@ -8029,26 +8026,26 @@
       <c r="B16">
         <v>1.166860313E9</v>
       </c>
-      <c r="C16" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="C16" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2">
         <v>42747.0</v>
       </c>
       <c r="F16">
         <v>5.107475296E9</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J16">
         <v>0.0</v>
@@ -8067,26 +8064,26 @@
       <c r="B17">
         <v>1.166860315E9</v>
       </c>
-      <c r="C17" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="C17" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2">
         <v>42838.0</v>
       </c>
       <c r="F17">
         <v>5.107475298E9</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J17">
         <v>0.0</v>
@@ -8105,26 +8102,26 @@
       <c r="B18">
         <v>1.166860317E9</v>
       </c>
-      <c r="C18" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="C18" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2">
         <v>41611.0</v>
       </c>
       <c r="F18">
         <v>5.1074753E9</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J18">
         <v>0.0</v>
@@ -8143,26 +8140,26 @@
       <c r="B19">
         <v>1.166860319E9</v>
       </c>
-      <c r="C19" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="C19" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2">
         <v>42768.0</v>
       </c>
       <c r="F19">
         <v>5.107475302E9</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J19">
         <v>0.0</v>
@@ -8181,26 +8178,26 @@
       <c r="B20">
         <v>1.166860321E9</v>
       </c>
-      <c r="C20" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="C20" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2">
         <v>42797.0</v>
       </c>
       <c r="F20">
         <v>5.107475304E9</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J20">
         <v>0.0</v>
@@ -8219,26 +8216,26 @@
       <c r="B21">
         <v>1.166860323E9</v>
       </c>
-      <c r="C21" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="C21" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2">
         <v>41680.0</v>
       </c>
       <c r="F21">
         <v>5.107475306E9</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J21">
         <v>0.0</v>
@@ -8257,26 +8254,26 @@
       <c r="B22">
         <v>1.166860325E9</v>
       </c>
-      <c r="C22" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="C22" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2">
         <v>41835.0</v>
       </c>
       <c r="F22">
         <v>5.107475308E9</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J22">
         <v>0.0</v>
@@ -8295,26 +8292,26 @@
       <c r="B23">
         <v>1.166860327E9</v>
       </c>
-      <c r="C23" s="1">
-        <v>42912.0</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="C23" s="2">
+        <v>42912.0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2">
         <v>42717.0</v>
       </c>
       <c r="F23">
         <v>5.10747531E9</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J23">
         <v>0.0</v>
@@ -8333,34 +8330,34 @@
       <c r="B24">
         <v>1.16977068E9</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>42915.0</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2">
         <v>42914.0</v>
       </c>
       <c r="F24">
         <v>5.121174235E9</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H24" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I24" t="s">
-        <v>90</v>
-      </c>
-      <c r="J24" s="2">
+        <v>97</v>
+      </c>
+      <c r="J24" s="1">
         <v>345345.0</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <v>34534.0</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="1">
         <v>435345.0</v>
       </c>
     </row>
@@ -8371,34 +8368,34 @@
       <c r="B25">
         <v>1.173982857E9</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>42922.0</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2">
         <v>42921.0</v>
       </c>
       <c r="F25">
         <v>5.142476221E9</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H25" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I25" t="s">
-        <v>90</v>
-      </c>
-      <c r="J25" s="2">
+        <v>97</v>
+      </c>
+      <c r="J25" s="1">
         <v>345.0</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
         <v>5345135.0</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="1">
         <v>151513.0</v>
       </c>
     </row>
@@ -8409,34 +8406,34 @@
       <c r="B26">
         <v>1.18434318E9</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>42940.0</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2">
         <v>42942.0</v>
       </c>
       <c r="F26">
         <v>5.197055321E9</v>
       </c>
       <c r="G26" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="2">
+        <v>59</v>
+      </c>
+      <c r="J26" s="1">
         <v>515.0</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <v>5153.0</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="1">
         <v>13535.0</v>
       </c>
     </row>
@@ -8447,34 +8444,34 @@
       <c r="B27">
         <v>1.18434318E9</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>42940.0</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2">
         <v>42942.0</v>
       </c>
       <c r="F27">
         <v>5.196431004E9</v>
       </c>
       <c r="G27" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I27" t="s">
-        <v>93</v>
-      </c>
-      <c r="J27" s="2">
+        <v>99</v>
+      </c>
+      <c r="J27" s="1">
         <v>515.0</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="1">
         <v>125235.0</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="1">
         <v>215.0</v>
       </c>
     </row>
@@ -8485,26 +8482,26 @@
       <c r="B28">
         <v>1.187438734E9</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>42943.0</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2">
         <v>42929.0</v>
       </c>
       <c r="F28">
         <v>5.208854146E9</v>
       </c>
       <c r="G28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J28">
         <v>0.0</v>
@@ -8523,34 +8520,34 @@
       <c r="B29">
         <v>1.21448619E9</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>42991.0</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2">
         <v>42996.0</v>
       </c>
       <c r="F29">
         <v>5.362986926E9</v>
       </c>
       <c r="G29" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J29" s="2">
+        <v>100</v>
+      </c>
+      <c r="J29" s="1">
         <v>5135.0</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="1">
         <v>51325.0</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="1">
         <v>215.0</v>
       </c>
     </row>
@@ -8561,34 +8558,34 @@
       <c r="B30">
         <v>1.21448619E9</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>42991.0</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2">
         <v>42996.0</v>
       </c>
       <c r="F30">
         <v>5.360705385E9</v>
       </c>
       <c r="G30" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I30" t="s">
-        <v>93</v>
-      </c>
-      <c r="J30" s="2">
+        <v>99</v>
+      </c>
+      <c r="J30" s="1">
         <v>255.0</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="1">
         <v>5215.0</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="1">
         <v>535.0</v>
       </c>
     </row>
@@ -8599,34 +8596,34 @@
       <c r="B31">
         <v>1.21448619E9</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>42991.0</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2">
         <v>42996.0</v>
       </c>
       <c r="F31">
         <v>5.361204331E9</v>
       </c>
       <c r="G31" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J31">
         <v>3300.0</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1">
         <v>515.0</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="1">
         <v>2535.0</v>
       </c>
     </row>
@@ -8637,31 +8634,31 @@
       <c r="B32">
         <v>1.215447988E9</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>42992.0</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2">
         <v>42991.0</v>
       </c>
       <c r="F32">
         <v>5.364026601E9</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H32" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I32" t="s">
-        <v>90</v>
-      </c>
-      <c r="J32" s="2">
+        <v>97</v>
+      </c>
+      <c r="J32" s="1">
         <v>2355.0</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1">
         <v>251523.0</v>
       </c>
       <c r="L32">
@@ -8675,34 +8672,34 @@
       <c r="B33">
         <v>1.237335257E9</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>43033.0</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2">
         <v>43035.0</v>
       </c>
       <c r="F33">
         <v>5.489890929E9</v>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I33" t="s">
-        <v>93</v>
-      </c>
-      <c r="J33" s="2">
+        <v>99</v>
+      </c>
+      <c r="J33" s="1">
         <v>235.0</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="1">
         <v>23532.0</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="1">
         <v>23541.0</v>
       </c>
     </row>
@@ -8713,34 +8710,34 @@
       <c r="B34">
         <v>1.237335257E9</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>43033.0</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2">
         <v>43035.0</v>
       </c>
       <c r="F34">
         <v>5.490430896E9</v>
       </c>
       <c r="G34" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J34">
         <v>-2882.0</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="1">
         <v>34.0</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="1">
         <v>-525235.0</v>
       </c>
     </row>
@@ -8751,34 +8748,34 @@
       <c r="B35">
         <v>1.24553076E9</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>43048.0</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="2">
         <v>43052.0</v>
       </c>
       <c r="F35">
         <v>5.538377609E9</v>
       </c>
       <c r="G35" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
-      </c>
-      <c r="J35" s="2">
+        <v>59</v>
+      </c>
+      <c r="J35" s="1">
         <v>768.0</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="1">
         <v>43.0</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="1">
         <v>4.0</v>
       </c>
     </row>
@@ -8789,34 +8786,34 @@
       <c r="B36">
         <v>1.24553076E9</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>43048.0</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="2">
         <v>43052.0</v>
       </c>
       <c r="F36">
         <v>5.537740535E9</v>
       </c>
       <c r="G36" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I36" t="s">
-        <v>93</v>
-      </c>
-      <c r="J36" s="2">
+        <v>99</v>
+      </c>
+      <c r="J36" s="1">
         <v>864.0</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="1">
         <v>33543.0</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="1">
         <v>43.0</v>
       </c>
     </row>
@@ -8827,34 +8824,34 @@
       <c r="B37">
         <v>1.251840261E9</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>43060.0</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="2">
         <v>43062.0</v>
       </c>
       <c r="F37">
         <v>5.573678519E9</v>
       </c>
       <c r="G37" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I37" t="s">
-        <v>93</v>
-      </c>
-      <c r="J37" s="2">
+        <v>99</v>
+      </c>
+      <c r="J37" s="1">
         <v>4867.0</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="1">
         <v>3534.0</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="1">
         <v>5434534.0</v>
       </c>
     </row>
@@ -8865,28 +8862,28 @@
       <c r="B38">
         <v>1.251840261E9</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <v>43060.0</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="2">
         <v>43062.0</v>
       </c>
       <c r="F38">
         <v>5.574279348E9</v>
       </c>
       <c r="G38" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I38" t="s">
-        <v>52</v>
-      </c>
-      <c r="J38" s="2">
+        <v>59</v>
+      </c>
+      <c r="J38" s="1">
         <v>4848.0</v>
       </c>
       <c r="K38">
@@ -8903,34 +8900,34 @@
       <c r="B39">
         <v>1.262379986E9</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>43076.0</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="2">
         <v>43080.0</v>
       </c>
       <c r="F39">
         <v>5.62886898E9</v>
       </c>
       <c r="G39" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H39" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I39" t="s">
-        <v>52</v>
-      </c>
-      <c r="J39" s="2">
+        <v>59</v>
+      </c>
+      <c r="J39" s="1">
         <v>877.0</v>
       </c>
       <c r="K39">
         <v>-1586.14</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="1">
         <v>45.0</v>
       </c>
     </row>
@@ -8941,34 +8938,34 @@
       <c r="B40">
         <v>1.262379986E9</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>43076.0</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="2">
         <v>43080.0</v>
       </c>
       <c r="F40">
         <v>5.628271463E9</v>
       </c>
       <c r="G40" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H40" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I40" t="s">
-        <v>93</v>
-      </c>
-      <c r="J40" s="2">
+        <v>99</v>
+      </c>
+      <c r="J40" s="1">
         <v>8448.0</v>
       </c>
       <c r="K40">
         <v>-23.99</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="1">
         <v>34.0</v>
       </c>
     </row>
@@ -8979,34 +8976,34 @@
       <c r="B41">
         <v>1.2624345E9</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <v>43076.0</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="1">
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="2">
         <v>43080.0</v>
       </c>
       <c r="F41">
         <v>5.62887071E9</v>
       </c>
       <c r="G41" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H41" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I41" t="s">
-        <v>52</v>
-      </c>
-      <c r="J41" s="2">
+        <v>59</v>
+      </c>
+      <c r="J41" s="1">
         <v>87648.0</v>
       </c>
       <c r="K41">
         <v>943.08</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="1">
         <v>435.0</v>
       </c>
     </row>
@@ -9017,34 +9014,34 @@
       <c r="B42">
         <v>1.2624345E9</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>43076.0</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="2">
         <v>43080.0</v>
       </c>
       <c r="F42">
         <v>5.630830125E9</v>
       </c>
       <c r="G42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H42" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I42" t="s">
         <v>101</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="1">
         <v>4.0</v>
       </c>
       <c r="K42">
         <v>-0.03</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="1">
         <v>545.0</v>
       </c>
     </row>
@@ -9055,34 +9052,34 @@
       <c r="B43">
         <v>1.2624345E9</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>43076.0</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="2">
         <v>43080.0</v>
       </c>
       <c r="F43">
         <v>5.628268505E9</v>
       </c>
       <c r="G43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H43" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I43" t="s">
-        <v>93</v>
-      </c>
-      <c r="J43" s="2">
+        <v>99</v>
+      </c>
+      <c r="J43" s="1">
         <v>4534.0</v>
       </c>
       <c r="K43">
         <v>-26.88</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="1">
         <v>43.0</v>
       </c>
     </row>
@@ -9093,34 +9090,34 @@
       <c r="B44">
         <v>1.26346989E9</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <v>43077.0</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="1">
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2">
         <v>43081.0</v>
       </c>
       <c r="F44">
         <v>5.632764557E9</v>
       </c>
       <c r="G44" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H44" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I44" t="s">
-        <v>93</v>
-      </c>
-      <c r="J44" s="2">
+        <v>99</v>
+      </c>
+      <c r="J44" s="1">
         <v>33.0</v>
       </c>
       <c r="K44">
         <v>-27.29</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="1">
         <v>343453.0</v>
       </c>
     </row>
@@ -9131,34 +9128,34 @@
       <c r="B45">
         <v>1.26346989E9</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <v>43077.0</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="2">
         <v>43081.0</v>
       </c>
       <c r="F45">
         <v>5.633277999E9</v>
       </c>
       <c r="G45" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H45" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I45" t="s">
-        <v>52</v>
-      </c>
-      <c r="J45" s="2">
+        <v>59</v>
+      </c>
+      <c r="J45" s="1">
         <v>35.0</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="1">
         <v>345.0</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="1">
         <v>354.0</v>
       </c>
     </row>
